--- a/EmployeeSQL/m9-starter-code/Starter_Code/data/Snapshot_of_Tables.xlsx
+++ b/EmployeeSQL/m9-starter-code/Starter_Code/data/Snapshot_of_Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grigor\Desktop\Weekly  Classes\challenges\sql-challenge\EmployeeSQL\m9-starter-code\Starter_Code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C027CD88-E510-42D9-B2B8-B97ABBCFE7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCA9BFF-D65C-4491-B8BD-978793C54C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38145" yWindow="870" windowWidth="16515" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
     <t>Departments</t>
   </si>
@@ -341,6 +341,29 @@
         <scheme val="minor"/>
       </rPr>
       <t>department_id</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> employees_id</t>
     </r>
   </si>
 </sst>
@@ -726,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,7 +1070,7 @@
         <v>36</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">

--- a/EmployeeSQL/m9-starter-code/Starter_Code/data/Snapshot_of_Tables.xlsx
+++ b/EmployeeSQL/m9-starter-code/Starter_Code/data/Snapshot_of_Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grigor\Desktop\Weekly  Classes\challenges\sql-challenge\EmployeeSQL\m9-starter-code\Starter_Code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCA9BFF-D65C-4491-B8BD-978793C54C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50684EC2-49B2-4A58-94A7-1FEBC6FB69AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,9 +141,6 @@
     <t>titles</t>
   </si>
   <si>
-    <t>title_id</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -280,6 +277,24 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Junction Table </t>
+  </si>
+  <si>
+    <r>
+      <t>PK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> junction_table_id</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -289,6 +304,52 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">FK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>department_id</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> employees_id</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">PK </t>
     </r>
     <r>
@@ -303,75 +364,14 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Junction Table </t>
-  </si>
-  <si>
-    <r>
-      <t>PK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> junction_table_id</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">FK </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>department_id</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> employees_id</t>
-    </r>
+    <t>PK_title_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,8 +387,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,6 +444,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -450,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -462,6 +475,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,12 +787,12 @@
         <v>0</v>
       </c>
       <c r="M1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -787,7 +801,7 @@
         <v>2</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
@@ -833,7 +847,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>12</v>
@@ -842,7 +856,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -884,7 +898,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>1</v>
@@ -893,7 +907,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -935,7 +949,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>12</v>
@@ -959,7 +973,7 @@
         <v>22</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1061,7 +1075,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>12</v>
@@ -1070,7 +1084,7 @@
         <v>36</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1111,17 +1125,17 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>51</v>
+      <c r="A37" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="D37" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1129,23 +1143,23 @@
         <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
         <v>41</v>
-      </c>
-      <c r="C39" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
         <v>43</v>
-      </c>
-      <c r="C40" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1153,7 +1167,7 @@
         <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
